--- a/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D96EC30-7500-4CB2-A566-B40490407EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E113C362-DBD3-464B-8CAD-B259ED518AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E113C362-DBD3-464B-8CAD-B259ED518AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{414341A2-2A4F-495C-AABF-3BB85A5D9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -830,9 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -872,7 +870,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
@@ -1151,7 +1149,7 @@
       </c>
       <c r="AJ8">
         <f>AI8*$AD$1</f>
-        <v>0.45780563453088652</v>
+        <v>0.10173458545130812</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1219,7 +1217,7 @@
       </c>
       <c r="AJ9">
         <f>AI9*$AD$1</f>
-        <v>8.5336874475817739E-2</v>
+        <v>1.8963749883515055E-2</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1570,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{414341A2-2A4F-495C-AABF-3BB85A5D9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E6FC78-6467-4B9E-80A5-82F52514B273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E6FC78-6467-4B9E-80A5-82F52514B273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0604CEA8-4021-450A-A3CB-3019A4780D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BRA/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0604CEA8-4021-450A-A3CB-3019A4780D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{497A0E4C-1283-45A8-B912-F185AB1A5E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
